--- a/Hemoglobin Tracker - Submission.xlsx
+++ b/Hemoglobin Tracker - Submission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JOBAAJ\JOBAAJ PROJECT DETAILS\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JOBAAJ\My Excel Projects\HB Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807B9A78-1948-4F3B-9387-361D042A2213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBC762-516F-44BC-AFA0-F1E3C2BC674D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anemia " sheetId="1" r:id="rId1"/>
@@ -19,9 +19,13 @@
     <sheet name="Men" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
-    <sheet name="Hemoglobin Tracker App" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="HB tracker " sheetId="10" r:id="rId7"/>
+    <sheet name="Hemoglobin Tracker App" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anemia '!$A$1:$I$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'child '!$A$1:$I$112</definedName>
@@ -30,7 +34,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="90">
   <si>
     <t>Hemoglobin</t>
   </si>
@@ -427,16 +431,64 @@
   <si>
     <t xml:space="preserve">Using VLOOKUP </t>
   </si>
+  <si>
+    <t>HAEMOGLOBIN  TRACKING</t>
+  </si>
+  <si>
+    <t>CHARTED PROGRESS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INFO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HB levels will vary from person-to-person. There are many factors to keeping it within your normal range and isn't based on sugar alone. Consult a physician for additional information or follow-up.</t>
+    </r>
+  </si>
+  <si>
+    <t>DATA ENTRY</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>HB LEVEL (mg/dL)</t>
+  </si>
+  <si>
+    <t>RUNNING AVERAGE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode=";;;"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +643,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,8 +766,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -758,15 +867,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -860,6 +1014,32 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="7"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="15" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,14 +1065,22 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="6" builtinId="6"/>
+    <cellStyle name="Date" xfId="11" xr:uid="{535BE1DE-54A6-4976-8B19-E237AB89E728}"/>
+    <cellStyle name="Explanatory Text" xfId="10" builtinId="53"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="7" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Time" xfId="12" xr:uid="{E0E57DD6-0053-4249-9A52-C1AB474CD051}"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1026,6 +1214,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1045,8 +1236,97 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="-0.499984740745262"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Blood sugar tracking" pivot="0" count="7" xr9:uid="{464E97C5-F738-40A0-9C8A-FCFBD626DBBD}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9963,6 +10243,1105 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>HB Level </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46728630570663193"/>
+          <c:y val="2.7844073190135241E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]HB data'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB LEVEL (mg/dL)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]HB data'!$B$8:$C$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="28"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.364583333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.520833333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.802083333</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.510416667</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.78125</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.802083333</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.510416667</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.78125</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.520833333</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.770833333</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.770833333</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>44743</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>44752</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44762</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>44774</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44783</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44793</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>44805</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>44814</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>44824</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>44834</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>44844</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>44854</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>44864</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>44875</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>44885</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>44895</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>44905</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>44915</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>44915</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>44925</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>44935</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>44935</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44945</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>44955</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>44966</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>44976</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>44985</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>44993</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]HB data'!$D$8:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA9B-4B75-9692-AE35338CE474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]HB data'!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUNNING AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'[1]HB data'!$B$8:$C$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="28"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.364583333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.520833333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.802083333</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.510416667</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.78125</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.802083333</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.510416667</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.78125</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.479166667</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.708333333</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.3125</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.520833333</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.770833333</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.770833333</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>44743</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>44752</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44762</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>44774</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44783</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44793</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>44805</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>44814</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>44824</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>44834</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>44844</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>44854</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>44864</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>44875</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>44885</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>44895</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>44905</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>44915</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>44915</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>44925</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>44935</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>44935</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44945</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>44955</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>44966</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>44976</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>44985</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>44993</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]HB data'!$E$8:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.233333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.816666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.771428571428572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.338461538461539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.264285714285716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.286666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.356250000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.47777777777778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.478947368421053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.452380952380954</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.472727272727274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.504347826086958</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.537500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.611538461538462</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.651851851851852</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.685714285714287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA9B-4B75-9692-AE35338CE474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]HB data'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB LEVEL (mg/dL)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]HB data'!$D$8:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA9B-4B75-9692-AE35338CE474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]HB data'!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUNNING AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]HB data'!$E$8:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.233333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.816666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.771428571428572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.338461538461539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.264285714285716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.286666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.356250000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.47777777777778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.478947368421053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.452380952380954</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.472727272727274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.504347826086958</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.537500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.611538461538462</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.651851851851852</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.685714285714287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA9B-4B75-9692-AE35338CE474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="554362432"/>
+        <c:axId val="554364728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554362432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554364728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554364728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554362432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9718979680069181E-2"/>
+          <c:y val="0.9273250727380008"/>
+          <c:w val="0.9"/>
+          <c:h val="7.2674927261999228E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -12910,6 +14289,463 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="BloodSugarProgress" descr="Line chart tracking Blood sugar with Running average">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B827A61B-89C7-4162-818E-12810C47E066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="HB data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>HB LEVEL (mg/dL)</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>RUNNING AVERAGE</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>44743</v>
+          </cell>
+          <cell r="C8">
+            <v>0.36458333333333298</v>
+          </cell>
+          <cell r="D8">
+            <v>10.1</v>
+          </cell>
+          <cell r="E8">
+            <v>10.1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>44752</v>
+          </cell>
+          <cell r="C9">
+            <v>0.52083333333333304</v>
+          </cell>
+          <cell r="D9">
+            <v>9.8000000000000007</v>
+          </cell>
+          <cell r="E9">
+            <v>9.9499999999999993</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>44762</v>
+          </cell>
+          <cell r="C10">
+            <v>0.80208333333333304</v>
+          </cell>
+          <cell r="D10">
+            <v>10.8</v>
+          </cell>
+          <cell r="E10">
+            <v>10.233333333333333</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>44774</v>
+          </cell>
+          <cell r="C11">
+            <v>0.33333333333333298</v>
+          </cell>
+          <cell r="D11">
+            <v>11</v>
+          </cell>
+          <cell r="E11">
+            <v>10.425000000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>44783</v>
+          </cell>
+          <cell r="C12">
+            <v>0.51041666666666696</v>
+          </cell>
+          <cell r="D12">
+            <v>11.2</v>
+          </cell>
+          <cell r="E12">
+            <v>10.580000000000002</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>44793</v>
+          </cell>
+          <cell r="C13">
+            <v>0.78125</v>
+          </cell>
+          <cell r="D13">
+            <v>12</v>
+          </cell>
+          <cell r="E13">
+            <v>10.816666666666668</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>44805</v>
+          </cell>
+          <cell r="C14">
+            <v>0.3125</v>
+          </cell>
+          <cell r="D14">
+            <v>10.5</v>
+          </cell>
+          <cell r="E14">
+            <v>10.771428571428572</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>44814</v>
+          </cell>
+          <cell r="C15">
+            <v>0.47916666666666702</v>
+          </cell>
+          <cell r="D15">
+            <v>12</v>
+          </cell>
+          <cell r="E15">
+            <v>10.925000000000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>44824</v>
+          </cell>
+          <cell r="C16">
+            <v>0.70833333333333304</v>
+          </cell>
+          <cell r="D16">
+            <v>11.6</v>
+          </cell>
+          <cell r="E16">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>44834</v>
+          </cell>
+          <cell r="C17">
+            <v>0.3125</v>
+          </cell>
+          <cell r="D17">
+            <v>11.7</v>
+          </cell>
+          <cell r="E17">
+            <v>11.07</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>44844</v>
+          </cell>
+          <cell r="C18">
+            <v>0.47916666666666702</v>
+          </cell>
+          <cell r="D18">
+            <v>12.3</v>
+          </cell>
+          <cell r="E18">
+            <v>11.181818181818182</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>44854</v>
+          </cell>
+          <cell r="C19">
+            <v>0.70833333333333304</v>
+          </cell>
+          <cell r="D19">
+            <v>12.6</v>
+          </cell>
+          <cell r="E19">
+            <v>11.299999999999999</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>44864</v>
+          </cell>
+          <cell r="C20">
+            <v>0.3125</v>
+          </cell>
+          <cell r="D20">
+            <v>11.8</v>
+          </cell>
+          <cell r="E20">
+            <v>11.338461538461539</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>44875</v>
+          </cell>
+          <cell r="C21">
+            <v>0.47916666666666702</v>
+          </cell>
+          <cell r="D21">
+            <v>10.3</v>
+          </cell>
+          <cell r="E21">
+            <v>11.264285714285716</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>44885</v>
+          </cell>
+          <cell r="C22">
+            <v>0.70833333333333304</v>
+          </cell>
+          <cell r="D22">
+            <v>11.6</v>
+          </cell>
+          <cell r="E22">
+            <v>11.286666666666667</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>44895</v>
+          </cell>
+          <cell r="C23">
+            <v>0.80208333333333304</v>
+          </cell>
+          <cell r="D23">
+            <v>12.4</v>
+          </cell>
+          <cell r="E23">
+            <v>11.356250000000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>44905</v>
+          </cell>
+          <cell r="C24">
+            <v>0.33333333333333298</v>
+          </cell>
+          <cell r="D24">
+            <v>12.3</v>
+          </cell>
+          <cell r="E24">
+            <v>11.411764705882355</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>44915</v>
+          </cell>
+          <cell r="C25">
+            <v>0.51041666666666696</v>
+          </cell>
+          <cell r="D25">
+            <v>12.6</v>
+          </cell>
+          <cell r="E25">
+            <v>11.47777777777778</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>44915</v>
+          </cell>
+          <cell r="C26">
+            <v>0.78125</v>
+          </cell>
+          <cell r="D26">
+            <v>11.5</v>
+          </cell>
+          <cell r="E26">
+            <v>11.478947368421053</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>44925</v>
+          </cell>
+          <cell r="C27">
+            <v>0.3125</v>
+          </cell>
+          <cell r="D27">
+            <v>11.4</v>
+          </cell>
+          <cell r="E27">
+            <v>11.475000000000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>44935</v>
+          </cell>
+          <cell r="C28">
+            <v>0.47916666666666702</v>
+          </cell>
+          <cell r="D28">
+            <v>11</v>
+          </cell>
+          <cell r="E28">
+            <v>11.452380952380954</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>44935</v>
+          </cell>
+          <cell r="C29">
+            <v>0.70833333333333304</v>
+          </cell>
+          <cell r="D29">
+            <v>11.9</v>
+          </cell>
+          <cell r="E29">
+            <v>11.472727272727274</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>44945</v>
+          </cell>
+          <cell r="C30">
+            <v>0.3125</v>
+          </cell>
+          <cell r="D30">
+            <v>12.2</v>
+          </cell>
+          <cell r="E30">
+            <v>11.504347826086958</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>44955</v>
+          </cell>
+          <cell r="C31">
+            <v>0.70833333333333304</v>
+          </cell>
+          <cell r="D31">
+            <v>12.3</v>
+          </cell>
+          <cell r="E31">
+            <v>11.537500000000001</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>44966</v>
+          </cell>
+          <cell r="C32">
+            <v>0.3125</v>
+          </cell>
+          <cell r="D32">
+            <v>12.4</v>
+          </cell>
+          <cell r="E32">
+            <v>11.572000000000001</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>44976</v>
+          </cell>
+          <cell r="C33">
+            <v>0.52083333333333304</v>
+          </cell>
+          <cell r="D33">
+            <v>12.6</v>
+          </cell>
+          <cell r="E33">
+            <v>11.611538461538462</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>44985</v>
+          </cell>
+          <cell r="C34">
+            <v>0.77083333333333304</v>
+          </cell>
+          <cell r="D34">
+            <v>12.7</v>
+          </cell>
+          <cell r="E34">
+            <v>11.651851851851852</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>44993</v>
+          </cell>
+          <cell r="C35">
+            <v>0.77083333333333304</v>
+          </cell>
+          <cell r="D35">
+            <v>12.6</v>
+          </cell>
+          <cell r="E35">
+            <v>11.685714285714287</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="44994.767334953707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="111" xr:uid="{1FDD23CF-ABAD-4909-AB17-74B5E6CBDE3C}">
   <cacheSource type="worksheet">
@@ -15591,6 +17427,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17C6475B-886E-45F8-BC4F-97E469CF345F}" name="BloodSugar" displayName="BloodSugar" ref="B11:E39" totalsRowShown="0" headerRowCellStyle="Heading 2" dataCellStyle="Normal">
+  <autoFilter ref="B11:E39" xr:uid="{8792A33A-D3D4-4E83-B3DE-14295244E3B8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{783DC413-1126-45DE-8F83-144BE62588E4}" name="DATE" dataDxfId="7" dataCellStyle="Date">
+      <calculatedColumnFormula>TODAY()-60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EDB97491-D8E1-427F-8FD9-191390141A2F}" name="TIME" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F5A281A2-36C2-470A-9AE4-4AB931CB5C4B}" name="HB LEVEL (mg/dL)" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E7C4204B-D4EB-4DD6-A9EC-5FA8BE167661}" name="RUNNING AVERAGE" dataCellStyle="Comma [0]">
+      <calculatedColumnFormula>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Blood sugar tracking" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter Date, Time, and Blood Sugar reading in this table. Running Average is automatically calculated"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D9503B9-97D4-44C0-92C5-5122BB80D7D2}" name="Table13" displayName="Table13" ref="B21:D23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="B21:D23" xr:uid="{99CE0693-FAEB-47EC-864C-84854D63D237}"/>
   <tableColumns count="3">
@@ -25357,7 +27215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17501618-AF73-4E51-9B82-1924D8EB58BA}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
@@ -30845,10 +32703,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="S1">
-    <cfRule type="top10" dxfId="8" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="3" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:I112">
-    <cfRule type="top10" dxfId="7" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="1" rank="10"/>
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -30886,13 +32744,529 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C19C636-4D2C-4208-A7D8-E7626C5A2E16}">
+  <dimension ref="B1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="42" customWidth="1"/>
+    <col min="5" max="6" width="20.21875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="2:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="D12" s="47">
+        <v>10.1</v>
+      </c>
+      <c r="E12" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="45">
+        <v>44752</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="D13" s="47">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E13" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45">
+        <v>44762</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="D14" s="47">
+        <v>10.8</v>
+      </c>
+      <c r="E14" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>10.233333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="45">
+        <v>44774</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D15" s="47">
+        <v>11</v>
+      </c>
+      <c r="E15" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>10.425000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="45">
+        <v>44783</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="D16" s="47">
+        <v>11.2</v>
+      </c>
+      <c r="E16" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>10.580000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45">
+        <v>44793</v>
+      </c>
+      <c r="C17" s="46">
+        <v>0.78125</v>
+      </c>
+      <c r="D17" s="47">
+        <v>12</v>
+      </c>
+      <c r="E17" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>10.816666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="45">
+        <v>44805</v>
+      </c>
+      <c r="C18" s="46">
+        <v>0.3125</v>
+      </c>
+      <c r="D18" s="47">
+        <v>10.5</v>
+      </c>
+      <c r="E18" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>10.771428571428572</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="45">
+        <v>44814</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D19" s="47">
+        <v>12</v>
+      </c>
+      <c r="E19" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>10.925000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45">
+        <v>44824</v>
+      </c>
+      <c r="C20" s="46">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D20" s="47">
+        <v>11.6</v>
+      </c>
+      <c r="E20" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="45">
+        <v>44834</v>
+      </c>
+      <c r="C21" s="46">
+        <v>0.3125</v>
+      </c>
+      <c r="D21" s="47">
+        <v>11.7</v>
+      </c>
+      <c r="E21" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="45">
+        <v>44844</v>
+      </c>
+      <c r="C22" s="46">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D22" s="47">
+        <v>12.3</v>
+      </c>
+      <c r="E22" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.181818181818182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="45">
+        <v>44854</v>
+      </c>
+      <c r="C23" s="46">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D23" s="47">
+        <v>12.6</v>
+      </c>
+      <c r="E23" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="45">
+        <v>44864</v>
+      </c>
+      <c r="C24" s="46">
+        <v>0.3125</v>
+      </c>
+      <c r="D24" s="47">
+        <v>11.8</v>
+      </c>
+      <c r="E24" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.338461538461539</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="45">
+        <v>44875</v>
+      </c>
+      <c r="C25" s="46">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D25" s="47">
+        <v>10.3</v>
+      </c>
+      <c r="E25" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.264285714285716</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="45">
+        <v>44885</v>
+      </c>
+      <c r="C26" s="46">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D26" s="47">
+        <v>11.6</v>
+      </c>
+      <c r="E26" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.286666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45">
+        <v>44895</v>
+      </c>
+      <c r="C27" s="46">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="D27" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="E27" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.356250000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="45">
+        <v>44905</v>
+      </c>
+      <c r="C28" s="46">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D28" s="47">
+        <v>12.3</v>
+      </c>
+      <c r="E28" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.411764705882355</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="45">
+        <v>44915</v>
+      </c>
+      <c r="C29" s="46">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="D29" s="47">
+        <v>12.6</v>
+      </c>
+      <c r="E29" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.47777777777778</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="45">
+        <v>44915</v>
+      </c>
+      <c r="C30" s="46">
+        <v>0.78125</v>
+      </c>
+      <c r="D30" s="47">
+        <v>11.5</v>
+      </c>
+      <c r="E30" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.478947368421053</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="45">
+        <v>44925</v>
+      </c>
+      <c r="C31" s="46">
+        <v>0.3125</v>
+      </c>
+      <c r="D31" s="47">
+        <v>11.4</v>
+      </c>
+      <c r="E31" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.475000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="45">
+        <v>44935</v>
+      </c>
+      <c r="C32" s="46">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D32" s="47">
+        <v>11</v>
+      </c>
+      <c r="E32" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.452380952380954</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45">
+        <f ca="1">TODAY()-60</f>
+        <v>44940</v>
+      </c>
+      <c r="C33" s="46">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D33" s="47">
+        <v>11.9</v>
+      </c>
+      <c r="E33" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.472727272727274</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="45">
+        <v>44945</v>
+      </c>
+      <c r="C34" s="46">
+        <v>0.3125</v>
+      </c>
+      <c r="D34" s="47">
+        <v>12.2</v>
+      </c>
+      <c r="E34" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.504347826086958</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="45">
+        <v>44955</v>
+      </c>
+      <c r="C35" s="46">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D35" s="47">
+        <v>12.3</v>
+      </c>
+      <c r="E35" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.537500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="45">
+        <v>44966</v>
+      </c>
+      <c r="C36" s="46">
+        <v>0.3125</v>
+      </c>
+      <c r="D36" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="E36" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.572000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="45">
+        <v>44976</v>
+      </c>
+      <c r="C37" s="46">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="D37" s="47">
+        <v>12.6</v>
+      </c>
+      <c r="E37" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.611538461538462</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="45">
+        <v>44985</v>
+      </c>
+      <c r="C38" s="46">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D38" s="47">
+        <v>12.7</v>
+      </c>
+      <c r="E38" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.651851851851852</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="45">
+        <v>44993</v>
+      </c>
+      <c r="C39" s="46">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D39" s="47">
+        <v>12.6</v>
+      </c>
+      <c r="E39" s="48">
+        <f>IFERROR(AVERAGE(INDEX(BloodSugar[HB LEVEL (mg/dL)],1,1):BloodSugar[[#This Row],[HB LEVEL (mg/dL)]]), "")</f>
+        <v>11.685714285714287</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Running Average is automatically calculated in this column under this heading" sqref="E11" xr:uid="{14CD744B-7532-47AC-9F1E-DEBAF1064D37}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Blood Sugar in milligrams per decilitre in this column under this heading" sqref="D11" xr:uid="{B2FEA57F-F9D7-4AFE-A13C-C3D9FCAD69C3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Time in this column under this heading" sqref="C11" xr:uid="{9F46320B-3CA6-4156-BA0D-C27C00A25EF9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in this column under this heading. Use heading filters to find specific entries" sqref="B11" xr:uid="{A8EFE0CB-5B3B-4002-BB97-2A405DF52125}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Blood sugar data in table below" sqref="B9" xr:uid="{F8D6F2B6-1FA3-4F9A-B7EE-F4B8D14E6C39}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Blood sugar and Running Average chart is in cell below" sqref="B2" xr:uid="{51566159-041F-4A4D-91AA-BA8D80F4D5CB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B1" xr:uid="{15060E04-A936-4487-BDF8-5ACCDE1746F7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Blood Sugar Tracker in this worksheet. Enter blood sugar details in Blood Sugar table starting in cell B7. Progress chart is in cell B3. Information is in cell F4" sqref="A1" xr:uid="{10512FEE-02F5-4B5E-97A5-4BDE98D5C9B5}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A306E1-A6AF-448F-BFD8-CA35C5F2E1B7}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -30909,31 +33283,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="F3" s="46" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="F3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="F4" s="21" t="s">
         <v>78</v>
       </c>
@@ -30945,9 +33319,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="F5" s="18">
         <v>0</v>
       </c>
@@ -30971,11 +33345,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="F7" s="17">
         <v>17.600000000000001</v>
       </c>
@@ -31013,11 +33387,11 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
@@ -31133,9 +33507,9 @@
       <c r="D21" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="36" t="s">
@@ -31151,9 +33525,9 @@
         <f>VLOOKUP(C22,$F$11:$H$13,3,TRUE)</f>
         <v>Low</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B23" s="32" t="s">
@@ -31208,7 +33582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE5951C-1526-41FD-BF37-8D449AE7A536}">
   <dimension ref="A1:C3"/>
   <sheetViews>
